--- a/students/base.xlsx
+++ b/students/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Enrique\2021\sistemaCreaj-app\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811EF496-2BF4-421E-94D7-C2CD0C24D87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF09B8-25A1-483E-B9CD-AF43E072F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D5170509-CE82-4A9C-8D45-B5EFC0FBDD21}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>idestudiante</t>
   </si>
@@ -43,16 +43,28 @@
   </si>
   <si>
     <t>Columna3</t>
+  </si>
+  <si>
+    <t>Columna4</t>
+  </si>
+  <si>
+    <t>Grado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,12 +117,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}" name="Tabla2" displayName="Tabla2" ref="A1:C39" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:C39" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}" name="Tabla2" displayName="Tabla2" ref="A1:D39" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D39" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D7CDB447-AEF3-4C5F-A001-CF605D7EE57E}" name="Columna1"/>
     <tableColumn id="2" xr3:uid="{C50CF98D-0F95-4C79-9AB8-69F047D3F3E0}" name="Columna2"/>
     <tableColumn id="3" xr3:uid="{446D7399-1C38-456D-B3C3-23F94DF6321C}" name="Columna3"/>
+    <tableColumn id="4" xr3:uid="{BF58C576-C39F-49E5-B55B-414F53F7192B}" name="Columna4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -413,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A85AA-C7E2-474F-A3CC-664D2EE6A990}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,9 +437,10 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -436,8 +450,11 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +464,12 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/students/base.xlsx
+++ b/students/base.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Enrique\2021\sistemaCreaj-app\students\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\creaj21\sistemaCreaj-app\students\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF09B8-25A1-483E-B9CD-AF43E072F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C50371-1BC4-494B-A157-0FCFD3DB4C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D5170509-CE82-4A9C-8D45-B5EFC0FBDD21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D5170509-CE82-4A9C-8D45-B5EFC0FBDD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,37 +25,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>idestudiante</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>apellidos</t>
-  </si>
-  <si>
-    <t>Columna1</t>
-  </si>
-  <si>
-    <t>Columna2</t>
-  </si>
-  <si>
-    <t>Columna3</t>
-  </si>
-  <si>
-    <t>Columna4</t>
-  </si>
-  <si>
-    <t>Grado</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+  <si>
+    <t>INGRESO DE DATOS DE PROYECTOS</t>
+  </si>
+  <si>
+    <t>GRADO:</t>
+  </si>
+  <si>
+    <t>Ingrese el grado aquí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECCIÓN </t>
+  </si>
+  <si>
+    <t>Ingrese la sección</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PROYECTO:</t>
+  </si>
+  <si>
+    <t>ingrese el nombre aquí</t>
+  </si>
+  <si>
+    <t>ingrese la descripción aquí</t>
+  </si>
+  <si>
+    <t>CÓDIGO ESTUDIANTE</t>
+  </si>
+  <si>
+    <t>APELLIDOS</t>
+  </si>
+  <si>
+    <t>NOMBRES</t>
+  </si>
+  <si>
+    <t>¡CAMBIAR ESTA BASE HARÁ QUE EL SISTEMA NO RECONOZCA LOS PROYECTOS QUE SE QUIEREN LLEGAR A CREAR!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,16 +81,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -86,24 +130,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -114,19 +234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}" name="Tabla2" displayName="Tabla2" ref="A1:D39" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D39" xr:uid="{106A9B8F-0602-4590-95A7-0372376D60BB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7CDB447-AEF3-4C5F-A001-CF605D7EE57E}" name="Columna1"/>
-    <tableColumn id="2" xr3:uid="{C50CF98D-0F95-4C79-9AB8-69F047D3F3E0}" name="Columna2"/>
-    <tableColumn id="3" xr3:uid="{446D7399-1C38-456D-B3C3-23F94DF6321C}" name="Columna3"/>
-    <tableColumn id="4" xr3:uid="{BF58C576-C39F-49E5-B55B-414F53F7192B}" name="Columna4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,53 +533,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{397A85AA-C7E2-474F-A3CC-664D2EE6A990}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
     <col min="2" max="2" width="33.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="13"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="10"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="11"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="13"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="13"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="13"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="13"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="13"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="13"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="13"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="13"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:C16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>